--- a/src/main/webapp/excels/Student_Template.xlsx
+++ b/src/main/webapp/excels/Student_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10237\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6580F5-B73A-40FE-875F-B0EBF6E98DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510124A4-19E1-4227-95B2-C44C3726F174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,37 +74,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>学生01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201540260117</t>
-  </si>
-  <si>
-    <t>18219220920</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201540410101</t>
-  </si>
-  <si>
-    <t>18219220921</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>421121199609087832</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>深色表头部分不能做修改，将学生信息添加到表头下方.所有内容必须都是以文本形式存储</t>
+    <r>
+      <t>深色表头部分不能做修改，将学生信息添加到表头下方.所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容必须都是以文本形式存储（表格左上角显示绿色，在内容最前面加上英文单引号）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,12 +193,9 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,25 +477,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="10" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,21 +517,21 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -556,15 +549,15 @@
         <v>11</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
@@ -574,79 +567,19 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:P2"/>
+    <mergeCell ref="H1:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/excels/Student_Template.xlsx
+++ b/src/main/webapp/excels/Student_Template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10237\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA_Projects\StudyPro\out\artifacts\StudyPro\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510124A4-19E1-4227-95B2-C44C3726F174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D295C2F6-41E7-4AED-AB62-299AE850464C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="学生信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,10 +58,6 @@
     <t>201440410235</t>
   </si>
   <si>
-    <t>18219220923</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>421121199609087895</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,29 +74,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>深色表头部分不能做修改，将学生信息添加到表头下方.所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内容必须都是以文本形式存储（表格左上角显示绿色，在内容最前面加上英文单引号）</t>
-    </r>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15928759414</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +132,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,8 +164,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -190,16 +185,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,6 +208,277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96274E1-BAFF-4F3E-B658-167D78C8B15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="266700"/>
+          <a:ext cx="5229225" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>注：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、深色表头部分不能做修改，将学生信息添加到表头下方</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、所有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>数字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>内容必须都是以文本形式存储（表格左上角显示绿色，在内容最前面加上英文单引号）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、尽量不要有空行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、身份证号码和邮箱允许不填，其他信息必填</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、若出现“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>电话已经被注册”的错误，请修改电话或将该学生信息删除后重新导入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,25 +744,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="10" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,19 +775,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -528,28 +797,33 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -558,30 +832,15 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:P3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{329D8B54-7532-4EF1-891C-ED2F67F6250F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>